--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AE8109-9409-4B48-B332-61190B41FED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B519A386-0629-43B8-AD5D-554EC66EF403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-12390" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1324,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -2743,7 +2744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B038B75F-C023-45BB-9C5E-2448F504CF83}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>

--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B519A386-0629-43B8-AD5D-554EC66EF403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CF8057-0A4A-47CF-98F5-3348828E0354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-12390" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CF8057-0A4A-47CF-98F5-3348828E0354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD8EEDB-FD36-4131-B176-D9877E3CCD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12390" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD8EEDB-FD36-4131-B176-D9877E3CCD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2878EA60-755F-48AE-8A7C-F2E69CDCA39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2878EA60-755F-48AE-8A7C-F2E69CDCA39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9C22B0-54DB-407B-AAB5-635870E57719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9C22B0-54DB-407B-AAB5-635870E57719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CCD533-34F2-4076-9E63-71C0886A8F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CCD533-34F2-4076-9E63-71C0886A8F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1126D60-2413-44C2-BB0A-3C92F6BF4A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1126D60-2413-44C2-BB0A-3C92F6BF4A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0ABDF8-E0E5-4023-B775-37D81F2CAC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0ABDF8-E0E5-4023-B775-37D81F2CAC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC4C4D3-AB30-49DC-9DCD-C4159D920557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC4C4D3-AB30-49DC-9DCD-C4159D920557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC0488A-ED6E-4EEE-82BA-5E5BA0698B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC0488A-ED6E-4EEE-82BA-5E5BA0698B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E947D2DE-790D-4114-A7B9-6A8EDE637B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E947D2DE-790D-4114-A7B9-6A8EDE637B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D81138-7E2B-46D8-9F35-ABF7F23AD1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30630" yWindow="-10440" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D81138-7E2B-46D8-9F35-ABF7F23AD1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D1461C-79BF-4A08-B5DE-5DC253D9C068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30630" yWindow="-10440" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30195" yWindow="-10875" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D1461C-79BF-4A08-B5DE-5DC253D9C068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C18D722-440A-46F4-82AC-BEA176BD089D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30195" yWindow="-10875" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C18D722-440A-46F4-82AC-BEA176BD089D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65245037-6CEC-46DC-AC19-5B6C9EA08780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65245037-6CEC-46DC-AC19-5B6C9EA08780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E6F0E8-2BC6-4286-A86A-877C019C5F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E6F0E8-2BC6-4286-A86A-877C019C5F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104B3139-27B0-47CF-BC99-E2F90521E493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104B3139-27B0-47CF-BC99-E2F90521E493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40C00E2-F893-4607-AEBB-BD54262EE936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40C00E2-F893-4607-AEBB-BD54262EE936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AF3FC8-1FC9-4C40-9AB8-046C01BAA426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48420" yWindow="-2760" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AF3FC8-1FC9-4C40-9AB8-046C01BAA426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C39897-C938-4F2D-B531-AD73EA4CB1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48420" yWindow="-2760" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C39897-C938-4F2D-B531-AD73EA4CB1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B45008F-8998-44E1-A7DA-849141E4FA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48420" yWindow="-2760" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48855" yWindow="-2325" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B45008F-8998-44E1-A7DA-849141E4FA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8733548-F061-47B0-AFC8-DA68A8F1EAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48855" yWindow="-2325" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8733548-F061-47B0-AFC8-DA68A8F1EAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B42CB4-4B71-410C-B499-C9C0E4B0E6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS3/Market Data/CS3_market_data_2025.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B42CB4-4B71-410C-B499-C9C0E4B0E6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD3B930-0CBA-45EC-804B-02B3026A7761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45105" yWindow="-9990" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,19 +1338,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/$B$1</f>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="D1:E1" si="0">1/$B$1</f>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
